--- a/BookingFormTest.xlsx
+++ b/BookingFormTest.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwo13/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D185DE28-71EB-0546-A618-2DD57D69FFA0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4AF82F9E-1ADE-674F-B863-E231AC942B64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80000" yWindow="15840" windowWidth="28800" windowHeight="17540" xr2:uid="{E807F9DF-B06C-F140-8BBD-112DB6AE31BF}"/>
+    <workbookView xWindow="-80000" yWindow="15840" windowWidth="27200" windowHeight="17540" xr2:uid="{E807F9DF-B06C-F140-8BBD-112DB6AE31BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Images" sheetId="3" r:id="rId3"/>
+    <sheet name="Images" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>Given I am on the home page
 And I have entered valid details
@@ -71,9 +70,6 @@
     <t>Reponse Code: 201</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Cross-browser Testing</t>
   </si>
   <si>
@@ -141,16 +137,10 @@
     <t>Functional Tests</t>
   </si>
   <si>
-    <t>First name form</t>
-  </si>
-  <si>
     <t>Firstname' should probably be two words</t>
   </si>
   <si>
     <t>No limit to the decimal places on the price</t>
-  </si>
-  <si>
-    <t>Any tests that do not have pass/fail result are because of no requirements</t>
   </si>
   <si>
     <t>Summary of testing</t>
@@ -214,12 +204,6 @@
     <t>Pass with observations</t>
   </si>
   <si>
-    <t xml:space="preserve">Second name form </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price form </t>
-  </si>
-  <si>
     <t xml:space="preserve">Booking form works 'functionally' at all screen sizes, that is you can add and delete bookings. But if you reduce the window size, or open on smaller devices such as phones, the UI does not respond well. See screenshots. </t>
   </si>
   <si>
@@ -253,9 +237,6 @@
     <t xml:space="preserve">Allows free text entry which can cause bad requests. </t>
   </si>
   <si>
-    <t>Summary of bugs</t>
-  </si>
-  <si>
     <t>Allows user to type spaces in , effectivly allowing a blank firstname or second name</t>
   </si>
   <si>
@@ -293,45 +274,52 @@
 -No length limit and if user enters a name that's too long it affects the layout. (See Image 1 )</t>
   </si>
   <si>
+    <t>http://hotel-test.equalexperts.io/script.js</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Reponse Code: 200</t>
+  </si>
+  <si>
+    <t>Returns a list of bookindID's</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>User can input a checkin date that is after the checkout date</t>
+  </si>
+  <si>
+    <t>No error messages</t>
+  </si>
+  <si>
+    <t>Free text entry on dates</t>
+  </si>
+  <si>
+    <t>Response code of 201 is incorrect but functionally works</t>
+  </si>
+  <si>
+    <t>Missing first name, second name, price, check in date or check out date does not allow user to save booking</t>
+  </si>
+  <si>
+    <t>General Exploratory Bugs</t>
+  </si>
+  <si>
+    <t>First name entry</t>
+  </si>
+  <si>
+    <t>Second name entry</t>
+  </si>
+  <si>
+    <t>Price entry</t>
+  </si>
+  <si>
     <t>- Negative numbers are allowed (probably shouldn't be)
-- No limit to the number of decimal places user can go to (see image 3)
-- Can enter spaces</t>
-  </si>
-  <si>
-    <t>http://hotel-test.equalexperts.io/script.js</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Reponse Code: 200</t>
-  </si>
-  <si>
-    <t>Returns a list of bookindID's</t>
-  </si>
-  <si>
-    <t>Pas</t>
-  </si>
-  <si>
-    <t>New entry is created</t>
-  </si>
-  <si>
-    <t>User can input a checkin date that is after the checkout date</t>
-  </si>
-  <si>
-    <t>General Exploratory</t>
-  </si>
-  <si>
-    <t>No error messages</t>
-  </si>
-  <si>
-    <t>Free text entry on dates</t>
-  </si>
-  <si>
-    <t>Response code of 201 is incorrect but functionally works</t>
-  </si>
-  <si>
-    <t>Missing first name, second name, price, check in date or check out date does not allow user to save booking</t>
+- No limit to the number of characters (see image 3)
+- Can enter spaces
+- Can have more than 2 numbers after the decimal place</t>
   </si>
 </sst>
 </file>
@@ -862,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C9B08-D581-D144-8D5C-15950506FFF0}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,12 +867,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -899,10 +882,10 @@
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -912,47 +895,47 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -963,196 +946,209 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="D15" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D27" s="4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1160,100 +1156,84 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>87</v>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
-        <v>12</v>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
+      <c r="E30" t="s">
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
+      <c r="B34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1261,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1269,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,35 +1265,32 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -1325,54 +1302,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>90</v>
+    <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>29</v>
+      <c r="A52" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>37</v>
+      <c r="A53" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1382,57 +1354,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0BDAC-2916-5B4E-A4D5-113627297F15}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC98094-49CF-104E-B43A-B8F7A0BE5249}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
